--- a/experiment_result.xlsx
+++ b/experiment_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/751168a1a3e17c29/harry/study/NEU-INFO6205/INFO6205-project-sorting-Chinese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{788BEBF7-F69C-40DE-8261-EE7A954FDB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76B013CF-F611-4B2F-A127-C0B36E49B24A}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{788BEBF7-F69C-40DE-8261-EE7A954FDB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE05304-AA4B-4982-A8C8-8D271FB4C038}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{6233444F-4A99-4170-B50D-B60963513468}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="37690" windowHeight="21820" xr2:uid="{6233444F-4A99-4170-B50D-B60963513468}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Dual-pivot quicksort</t>
   </si>
   <si>
-    <t>quicksort</t>
-  </si>
-  <si>
     <t>TimSort</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">MSD radix sort - better caching </t>
+  </si>
+  <si>
+    <t>QuickSort</t>
   </si>
 </sst>
 </file>
@@ -155,6 +155,3653 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSD radix sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>467.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>999.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2190.3200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3491.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7139.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16E2-4B08-A5EA-590DD284EAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSD radix sort - 8 bits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.6692229132719963E-4"/>
+                  <c:y val="-4.1581284973026657E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>237.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>513.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1054.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2146.0500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4416.3999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16E2-4B08-A5EA-590DD284EAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSD radix sort - better caching </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.3162569946051285E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>235.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>498.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>999.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2091.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4170.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-16E2-4B08-A5EA-590DD284EAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSD radix sort - 16 bits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>710.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1496.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2921.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5220.1099999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8872.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-16E2-4B08-A5EA-590DD284EAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5393.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11391.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24355.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51209.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107071.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-16E2-4B08-A5EA-590DD284EAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dual-pivot quicksort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3454.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7732.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16653.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34530.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74390.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-16E2-4B08-A5EA-590DD284EAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TimSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4080.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8620.3799999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17453.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37871.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80107.839999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-16E2-4B08-A5EA-590DD284EAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HuskySort - IntroSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-16E2-4B08-A5EA-590DD284EAFC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2617.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5514.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11139.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22016.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32700.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-16E2-4B08-A5EA-590DD284EAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1366904144"/>
+        <c:axId val="1366909136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1366904144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366909136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1366909136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366904144"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSD radix sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4648-4FE1-8B9D-FD8C9A99DAF6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>467.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>999.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2190.3200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3491.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7139.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4648-4FE1-8B9D-FD8C9A99DAF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSD radix sort - 8 bits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0671026848671833E-2"/>
+                  <c:y val="-1.1212220555266831E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.23328980557866238"/>
+                      <c:h val="9.3323049088337579E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-4648-4FE1-8B9D-FD8C9A99DAF6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>237.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>513.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1054.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2146.0500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4416.3999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4648-4FE1-8B9D-FD8C9A99DAF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSD radix sort - better caching </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.254013902973819E-3"/>
+                  <c:y val="4.4848882221067324E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.30045467149184857"/>
+                      <c:h val="9.3323049088337579E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4648-4FE1-8B9D-FD8C9A99DAF6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>235.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>498.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>999.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2091.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4170.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4648-4FE1-8B9D-FD8C9A99DAF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSD radix sort - 16 bits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7654636581739495E-2"/>
+                  <c:y val="-1.1212220555266831E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.23312252786447776"/>
+                      <c:h val="9.3323049088337579E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4648-4FE1-8B9D-FD8C9A99DAF6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>710.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1496.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2921.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5220.1099999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8872.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4648-4FE1-8B9D-FD8C9A99DAF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2078909312"/>
+        <c:axId val="2078911392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2078909312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2078911392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2078911392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2078909312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11042</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>574260</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>88348</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487BA1DE-E558-4B6C-801A-614DAFE4F3A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55216</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>124791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149088</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>60739</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35717167-BE23-4E0C-A477-CFC8E3C325E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9506959A-8616-486B-A1EC-1B8CC28F579B}" name="Table1" displayName="Table1" ref="A1:I6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I6" xr:uid="{9506959A-8616-486B-A1EC-1B8CC28F579B}"/>
@@ -162,12 +3809,12 @@
     <tableColumn id="1" xr3:uid="{747CA717-B5F2-4204-88ED-F1FE4CD7186D}" name="Array size" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{7680A71A-33F7-4229-83F7-5E5EF17DCDB0}" name="LSD radix sort" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{0BAB18B2-D6B2-472D-B1B7-70C2FC75ED18}" name="MSD radix sort - 8 bits" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{2C063EEB-049F-4AA4-A341-A12147E320A0}" name="MSD radix sort - better caching " dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{41F39A1A-04D3-488A-A482-1F8A74C677DE}" name="MSD radix sort - 16 bits" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A8918E82-A16E-4C32-B8CF-600E7F5C99C5}" name="quicksort" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E7A2F811-BE88-4C87-A992-0F46B1AE7342}" name="Dual-pivot quicksort" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{41E47A63-4688-45E0-9EF7-7059611CB5AD}" name="TimSort" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{9CC470A3-73D5-4A10-8E5E-CBF830DFC038}" name="HuskySort - IntroSort" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{2C063EEB-049F-4AA4-A341-A12147E320A0}" name="MSD radix sort - better caching " dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{41F39A1A-04D3-488A-A482-1F8A74C677DE}" name="MSD radix sort - 16 bits" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A8918E82-A16E-4C32-B8CF-600E7F5C99C5}" name="QuickSort" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E7A2F811-BE88-4C87-A992-0F46B1AE7342}" name="Dual-pivot quicksort" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{41E47A63-4688-45E0-9EF7-7059611CB5AD}" name="TimSort" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{9CC470A3-73D5-4A10-8E5E-CBF830DFC038}" name="HuskySort - IntroSort" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -472,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE50DC77-370B-46D6-9A8B-13778A085EBE}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,31 +4138,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -668,8 +4315,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/experiment_result.xlsx
+++ b/experiment_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/751168a1a3e17c29/harry/study/NEU-INFO6205/INFO6205-project-sorting-Chinese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{788BEBF7-F69C-40DE-8261-EE7A954FDB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE05304-AA4B-4982-A8C8-8D271FB4C038}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{788BEBF7-F69C-40DE-8261-EE7A954FDB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87EEAEE7-0BD6-4EF6-8BF8-6151A2586397}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="37690" windowHeight="21820" xr2:uid="{6233444F-4A99-4170-B50D-B60963513468}"/>
   </bookViews>
@@ -719,6 +719,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7887237625284314E-3"/>
+                  <c:y val="-1.8018556821644445E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -1405,6 +1411,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3943618812641645E-3"/>
+                  <c:y val="-5.5441713297368538E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -1506,19 +1518,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2617.63</c:v>
+                  <c:v>438.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5514.66</c:v>
+                  <c:v>1019.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11139.8</c:v>
+                  <c:v>2175.9899999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22016.89</c:v>
+                  <c:v>4293.57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32700.9</c:v>
+                  <c:v>8449.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,6 +2451,141 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4648-4FE1-8B9D-FD8C9A99DAF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HuskySort - IntroSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6829453819199861E-3"/>
+                  <c:y val="7.4748137035111862E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9C4E-47F9-95EB-0563C59B2A5A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>438.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1019.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2175.9899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4293.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8449.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C4E-47F9-95EB-0563C59B2A5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4119,8 +4266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE50DC77-370B-46D6-9A8B-13778A085EBE}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4134,6 +4281,7 @@
     <col min="7" max="7" width="34.36328125" customWidth="1"/>
     <col min="8" max="8" width="13.453125" customWidth="1"/>
     <col min="9" max="9" width="26.6328125" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -4191,7 +4339,7 @@
         <v>4080.81</v>
       </c>
       <c r="I2" s="2">
-        <v>2617.63</v>
+        <v>438.54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -4220,7 +4368,7 @@
         <v>8620.3799999999992</v>
       </c>
       <c r="I3" s="2">
-        <v>5514.66</v>
+        <v>1019.87</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -4249,7 +4397,7 @@
         <v>17453.86</v>
       </c>
       <c r="I4" s="2">
-        <v>11139.8</v>
+        <v>2175.9899999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -4278,7 +4426,7 @@
         <v>37871.64</v>
       </c>
       <c r="I5" s="2">
-        <v>22016.89</v>
+        <v>4293.57</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -4307,7 +4455,7 @@
         <v>80107.839999999997</v>
       </c>
       <c r="I6" s="2">
-        <v>32700.9</v>
+        <v>8449.91</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
